--- a/output/ouput.xlsx
+++ b/output/ouput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.shirole\Project\Sentiment_Project\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4D4113-5512-486B-A4AA-F65370C08F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB9A51F-DC75-40A8-B2F0-80FB0E6279E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -244,10 +244,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,12 +552,12 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="66.5546875" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
     <col min="2" max="2" width="78.6640625" customWidth="1"/>
     <col min="3" max="3" width="47.6640625" style="1" customWidth="1"/>
   </cols>
@@ -578,7 +577,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>-0.34090909090909</v>
       </c>
     </row>
@@ -589,7 +588,7 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>0.78125</v>
       </c>
     </row>
@@ -600,7 +599,7 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>-0.441176470588234</v>
       </c>
     </row>
@@ -611,7 +610,7 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>0</v>
       </c>
     </row>
@@ -622,7 +621,7 @@
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>0.27777777777777701</v>
       </c>
     </row>
@@ -633,7 +632,7 @@
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>-0.3125</v>
       </c>
     </row>
@@ -644,7 +643,7 @@
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>-1.6666666666666601</v>
       </c>
     </row>
@@ -655,7 +654,7 @@
       <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>9.9999999999999603E-2</v>
       </c>
     </row>
@@ -666,7 +665,7 @@
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>0.25</v>
       </c>
     </row>
@@ -677,7 +676,7 @@
       <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>-0.53571428571428603</v>
       </c>
     </row>
@@ -688,7 +687,7 @@
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>-1.6071428571428501</v>
       </c>
     </row>
@@ -699,7 +698,7 @@
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <v>-0.78947368421052599</v>
       </c>
     </row>
@@ -710,7 +709,7 @@
       <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14">
         <v>-0.68965517241379304</v>
       </c>
     </row>
@@ -721,7 +720,7 @@
       <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <v>-0.97826086956521596</v>
       </c>
     </row>
@@ -732,7 +731,7 @@
       <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
         <v>-1.875</v>
       </c>
     </row>
@@ -743,7 +742,7 @@
       <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17">
         <v>0.83333333333333304</v>
       </c>
     </row>
@@ -754,7 +753,7 @@
       <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18">
         <v>-2.7</v>
       </c>
     </row>
@@ -765,7 +764,7 @@
       <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19">
         <v>-1.0714285714285701</v>
       </c>
     </row>
@@ -776,7 +775,7 @@
       <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20">
         <v>-0.52631578947368496</v>
       </c>
     </row>
@@ -787,7 +786,7 @@
       <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21">
         <v>1.25</v>
       </c>
     </row>
@@ -798,7 +797,7 @@
       <c r="B22" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22">
         <v>-0.34090909090909</v>
       </c>
     </row>
@@ -809,7 +808,7 @@
       <c r="B23" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23">
         <v>-0.26785714285714302</v>
       </c>
     </row>
@@ -820,7 +819,7 @@
       <c r="B24" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24">
         <v>2.7499999999999898</v>
       </c>
     </row>
@@ -831,7 +830,7 @@
       <c r="B25" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25">
         <v>0</v>
       </c>
     </row>
@@ -842,7 +841,7 @@
       <c r="B26" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26">
         <v>-0.27777777777777701</v>
       </c>
     </row>
@@ -853,7 +852,7 @@
       <c r="B27" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27">
         <v>0.44642857142857101</v>
       </c>
     </row>
@@ -864,7 +863,7 @@
       <c r="B28" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28">
         <v>1.36363636363636</v>
       </c>
     </row>
@@ -875,7 +874,7 @@
       <c r="B29" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29">
         <v>0.512820512820512</v>
       </c>
     </row>
@@ -886,7 +885,7 @@
       <c r="B30" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30">
         <v>-6.25E-2</v>
       </c>
     </row>
